--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H2">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I2">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J2">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N2">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O2">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P2">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q2">
-        <v>0.2889835984544444</v>
+        <v>0.1983718143833333</v>
       </c>
       <c r="R2">
-        <v>2.60085238609</v>
+        <v>1.78534632945</v>
       </c>
       <c r="S2">
-        <v>0.02121346719360882</v>
+        <v>0.01798068621500346</v>
       </c>
       <c r="T2">
-        <v>0.02198619576180226</v>
+        <v>0.01805483862351391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H3">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I3">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J3">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N3">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O3">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P3">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q3">
-        <v>0.1547591659677778</v>
+        <v>0.002664720451111111</v>
       </c>
       <c r="R3">
-        <v>1.39283249371</v>
+        <v>0.02398248406</v>
       </c>
       <c r="S3">
-        <v>0.01136043189899321</v>
+        <v>0.0002415338208761018</v>
       </c>
       <c r="T3">
-        <v>0.01177425063947769</v>
+        <v>0.000242529907140026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>2.792502</v>
       </c>
       <c r="I4">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J4">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N4">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O4">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P4">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q4">
-        <v>0.345766977084</v>
+        <v>0.31954134969</v>
       </c>
       <c r="R4">
-        <v>3.111902793756</v>
+        <v>2.87587214721</v>
       </c>
       <c r="S4">
-        <v>0.02538177413608824</v>
+        <v>0.02896365473772321</v>
       </c>
       <c r="T4">
-        <v>0.02630633879152079</v>
+        <v>0.02908310094419087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>2.792502</v>
       </c>
       <c r="I5">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J5">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N5">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O5">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P5">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q5">
-        <v>0.185168325396</v>
+        <v>0.004292385852</v>
       </c>
       <c r="R5">
-        <v>1.666514928564</v>
+        <v>0.038631472668</v>
       </c>
       <c r="S5">
-        <v>0.01359268213522073</v>
+        <v>0.0003890675868366546</v>
       </c>
       <c r="T5">
-        <v>0.01408781353964396</v>
+        <v>0.0003906721028318904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H6">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I6">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J6">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N6">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O6">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P6">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q6">
-        <v>4.428350956496</v>
+        <v>5.564091668590001</v>
       </c>
       <c r="R6">
-        <v>39.855158608464</v>
+        <v>50.07682501731</v>
       </c>
       <c r="S6">
-        <v>0.3250726969967571</v>
+        <v>0.5043367006317881</v>
       </c>
       <c r="T6">
-        <v>0.3369138994469045</v>
+        <v>0.5064165868277252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H7">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I7">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J7">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N7">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O7">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P7">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q7">
-        <v>2.371511408624</v>
+        <v>0.07474221530533336</v>
       </c>
       <c r="R7">
-        <v>21.343602677616</v>
+        <v>0.6726799377480001</v>
       </c>
       <c r="S7">
-        <v>0.1740859333719067</v>
+        <v>0.006774734226216464</v>
       </c>
       <c r="T7">
-        <v>0.1804272434844573</v>
+        <v>0.006802673252229441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.5182005</v>
+        <v>0.39073</v>
       </c>
       <c r="H8">
-        <v>5.036401</v>
+        <v>0.78146</v>
       </c>
       <c r="I8">
-        <v>0.1054382363231665</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J8">
-        <v>0.07285264225229936</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N8">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O8">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P8">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q8">
-        <v>0.9354090789296667</v>
+        <v>0.13413174805</v>
       </c>
       <c r="R8">
-        <v>5.612454473578</v>
+        <v>0.8047904883</v>
       </c>
       <c r="S8">
-        <v>0.06866573021654181</v>
+        <v>0.01215788079901529</v>
       </c>
       <c r="T8">
-        <v>0.04744464677051408</v>
+        <v>0.008138679959350931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.5182005</v>
+        <v>0.39073</v>
       </c>
       <c r="H9">
-        <v>5.036401</v>
+        <v>0.78146</v>
       </c>
       <c r="I9">
-        <v>0.1054382363231665</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J9">
-        <v>0.07285264225229936</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N9">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O9">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P9">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q9">
-        <v>0.5009389102636665</v>
+        <v>0.001801786273333333</v>
       </c>
       <c r="R9">
-        <v>3.005633461581999</v>
+        <v>0.01081071764</v>
       </c>
       <c r="S9">
-        <v>0.03677250610662473</v>
+        <v>0.0001633163144069577</v>
       </c>
       <c r="T9">
-        <v>0.02540799548178528</v>
+        <v>0.0001093265542796421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.734682333333333</v>
+        <v>13.60421466666667</v>
       </c>
       <c r="H10">
-        <v>23.204047</v>
+        <v>40.81264400000001</v>
       </c>
       <c r="I10">
-        <v>0.3238547779442587</v>
+        <v>0.4289924256681337</v>
       </c>
       <c r="J10">
-        <v>0.3356516160838941</v>
+        <v>0.4307615918287382</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N10">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O10">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P10">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q10">
-        <v>2.873119943085111</v>
+        <v>4.670122831846667</v>
       </c>
       <c r="R10">
-        <v>25.858079487766</v>
+        <v>42.03110548662001</v>
       </c>
       <c r="S10">
-        <v>0.2109075946936388</v>
+        <v>0.4233061712219405</v>
       </c>
       <c r="T10">
-        <v>0.2185901824658932</v>
+        <v>0.4250518872506898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.734682333333333</v>
+        <v>13.60421466666667</v>
       </c>
       <c r="H11">
-        <v>23.204047</v>
+        <v>40.81264400000001</v>
       </c>
       <c r="I11">
-        <v>0.3238547779442587</v>
+        <v>0.4289924256681337</v>
       </c>
       <c r="J11">
-        <v>0.3356516160838941</v>
+        <v>0.4307615918287382</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N11">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O11">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P11">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q11">
-        <v>1.538639730750444</v>
+        <v>0.06273356856622224</v>
       </c>
       <c r="R11">
-        <v>13.847757576754</v>
+        <v>0.5646021170960002</v>
       </c>
       <c r="S11">
-        <v>0.1129471832506198</v>
+        <v>0.005686254446193226</v>
       </c>
       <c r="T11">
-        <v>0.1170614336180009</v>
+        <v>0.005709704578048408</v>
       </c>
     </row>
   </sheetData>
